--- a/bots/crawl_ch/output/electronics_2022-07-29.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-29.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:08</t>
+          <t>2022-07-29 20:58:22</t>
         </is>
       </c>
     </row>
